--- a/settings_dummy.xlsx
+++ b/settings_dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlorisFok\Documents\Github\ABM_network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCA2731-1322-4719-A645-224952E8C72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F38210-C1F3-4781-AB90-A9D2173F4F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{202C3662-AC81-4A22-8FED-7C2A578CC2F6}"/>
+    <workbookView xWindow="3510" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{202C3662-AC81-4A22-8FED-7C2A578CC2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842FA8-F8DC-4EFB-B9D6-CAAD7D4A3C97}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -536,13 +536,13 @@
         <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
         <v>0.01</v>
@@ -577,13 +577,13 @@
         <v>0.2</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
         <v>0.01</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -618,13 +618,13 @@
         <v>0.2</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
         <v>0.01</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -659,13 +659,13 @@
         <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
         <v>0.01</v>
@@ -686,6 +686,47 @@
         <v>15</v>
       </c>
       <c r="M6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>2.1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>0.1</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
         <v>1000</v>
       </c>
     </row>
